--- a/14 鄭暄瀠/統計學期末報告_512717021_鄭暄瀠/統計資料.xlsx
+++ b/14 鄭暄瀠/統計學期末報告_512717021_鄭暄瀠/統計資料.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17570" windowHeight="8980" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17570" windowHeight="8980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="資料總表" sheetId="1" r:id="rId1"/>
     <sheet name="相關係數" sheetId="13" r:id="rId2"/>
-    <sheet name="迴歸" sheetId="8" r:id="rId3"/>
-    <sheet name="單因子變異數分析" sheetId="10" r:id="rId4"/>
-    <sheet name="t檢定" sheetId="12" r:id="rId5"/>
-    <sheet name="t檢定2" sheetId="14" r:id="rId6"/>
+    <sheet name="單因子變異數分析" sheetId="15" r:id="rId3"/>
+    <sheet name="迴歸" sheetId="8" r:id="rId4"/>
+    <sheet name="t檢定_平均數差異" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
   <si>
     <t>102年4月1日</t>
   </si>
@@ -217,170 +216,170 @@
     <t>變異數</t>
   </si>
   <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>組</t>
+  </si>
+  <si>
+    <t>個數</t>
+  </si>
+  <si>
+    <t>總和</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>變源</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-值</t>
+  </si>
+  <si>
+    <t>臨界值</t>
+  </si>
+  <si>
+    <t>組間</t>
+  </si>
+  <si>
+    <t>組內</t>
+  </si>
+  <si>
+    <t>觀察值個數</t>
+  </si>
+  <si>
+    <t>t 統計</t>
+  </si>
+  <si>
+    <t>摘要輸出</t>
+  </si>
+  <si>
+    <t>R 的倍數</t>
+  </si>
+  <si>
+    <t>R 平方</t>
+  </si>
+  <si>
+    <t>調整的 R 平方</t>
+  </si>
+  <si>
+    <t>標準誤</t>
+  </si>
+  <si>
+    <t>迴歸</t>
+  </si>
+  <si>
+    <t>殘差</t>
+  </si>
+  <si>
+    <t>截距</t>
+  </si>
+  <si>
+    <t>顯著值</t>
+  </si>
+  <si>
+    <t>係數</t>
+  </si>
+  <si>
+    <t>下限 95%</t>
+  </si>
+  <si>
+    <t>上限 95%</t>
+  </si>
+  <si>
+    <t>殘差輸出</t>
+  </si>
+  <si>
+    <t>觀察值</t>
+  </si>
+  <si>
+    <t>機率輸出</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>預測為 職缺率%(Y)</t>
+  </si>
+  <si>
+    <t>平均數</t>
+  </si>
+  <si>
+    <t>皮耳森相關係數</t>
+  </si>
+  <si>
+    <t>假設的均數差</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 單尾</t>
+  </si>
+  <si>
+    <t>臨界值：單尾</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 雙尾</t>
+  </si>
+  <si>
+    <t>臨界值：雙尾</t>
+  </si>
+  <si>
+    <t>t 檢定：平均數差異檢定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>職缺率%(Y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>單因子變異數分析</t>
-  </si>
-  <si>
-    <t>摘要</t>
-  </si>
-  <si>
-    <t>組</t>
-  </si>
-  <si>
-    <t>個數</t>
-  </si>
-  <si>
-    <t>總和</t>
-  </si>
-  <si>
-    <t>平均</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>變源</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>自由度</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P-值</t>
-  </si>
-  <si>
-    <t>臨界值</t>
-  </si>
-  <si>
-    <t>組間</t>
-  </si>
-  <si>
-    <t>組內</t>
-  </si>
-  <si>
-    <t>觀察值個數</t>
-  </si>
-  <si>
-    <t>t 統計</t>
-  </si>
-  <si>
-    <t>摘要輸出</t>
-  </si>
-  <si>
-    <t>迴歸統計</t>
-  </si>
-  <si>
-    <t>R 的倍數</t>
-  </si>
-  <si>
-    <t>R 平方</t>
-  </si>
-  <si>
-    <t>調整的 R 平方</t>
-  </si>
-  <si>
-    <t>標準誤</t>
-  </si>
-  <si>
-    <t>迴歸</t>
-  </si>
-  <si>
-    <t>殘差</t>
-  </si>
-  <si>
-    <t>截距</t>
-  </si>
-  <si>
-    <t>顯著值</t>
-  </si>
-  <si>
-    <t>係數</t>
-  </si>
-  <si>
-    <t>下限 95%</t>
-  </si>
-  <si>
-    <t>上限 95%</t>
-  </si>
-  <si>
-    <t>下限 95.0%</t>
-  </si>
-  <si>
-    <t>上限 95.0%</t>
-  </si>
-  <si>
-    <t>殘差輸出</t>
-  </si>
-  <si>
-    <t>觀察值</t>
-  </si>
-  <si>
-    <t>機率輸出</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>預測為 職缺率%(Y)</t>
-  </si>
-  <si>
-    <t>平均數</t>
-  </si>
-  <si>
-    <t>皮耳森相關係數</t>
-  </si>
-  <si>
-    <t>假設的均數差</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) 單尾</t>
-  </si>
-  <si>
-    <t>臨界值：單尾</t>
-  </si>
-  <si>
-    <t>P(T&lt;=t) 雙尾</t>
-  </si>
-  <si>
-    <t>臨界值：雙尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>職缺率(Y)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t 檢定：平均數差異檢定</t>
+    <t>基本工資(X)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t 檢定：成對母體平均數差異檢定</t>
-  </si>
-  <si>
-    <t>職缺率(Y)</t>
+    <t>迴歸統計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="182" formatCode="0.0000%"/>
     <numFmt numFmtId="183" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
     <numFmt numFmtId="184" formatCode="#,##0.0000000000_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.000000000000000_);[Red]\(#,##0.000000000000000\)"/>
+    <numFmt numFmtId="188" formatCode="#,##0.000000_);[Red]\(#,##0.000000\)"/>
+    <numFmt numFmtId="189" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="192" formatCode="#,##0.00000000000000000000_);[Red]\(#,##0.00000000000000000000\)"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -972,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1188,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1204,9 +1200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1216,9 +1209,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1240,44 +1230,80 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1453,11 +1479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137593984"/>
-        <c:axId val="137595904"/>
+        <c:axId val="161383936"/>
+        <c:axId val="161385856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137593984"/>
+        <c:axId val="161383936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="16000"/>
@@ -1498,12 +1524,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137595904"/>
+        <c:crossAx val="161385856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137595904"/>
+        <c:axId val="161385856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5000000000000003E-2"/>
@@ -1545,7 +1571,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137593984"/>
+        <c:crossAx val="161383936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-3"/>
@@ -1692,11 +1718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137624576"/>
-        <c:axId val="167789312"/>
+        <c:axId val="132709760"/>
+        <c:axId val="161633408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137624576"/>
+        <c:axId val="132709760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,7 +1731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167789312"/>
+        <c:crossAx val="161633408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1713,7 +1739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167789312"/>
+        <c:axId val="161633408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,7 +1750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137624576"/>
+        <c:crossAx val="132709760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1863,11 +1889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167813504"/>
-        <c:axId val="167815040"/>
+        <c:axId val="161657600"/>
+        <c:axId val="161659136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167813504"/>
+        <c:axId val="161657600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,7 +1902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167815040"/>
+        <c:crossAx val="161659136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1884,7 +1910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167815040"/>
+        <c:axId val="161659136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167813504"/>
+        <c:crossAx val="161657600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,6 +1980,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2058,11 +2085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167623680"/>
-        <c:axId val="167654528"/>
+        <c:axId val="193549440"/>
+        <c:axId val="193551360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167623680"/>
+        <c:axId val="193549440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,18 +2119,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167654528"/>
+        <c:crossAx val="193551360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167654528"/>
+        <c:axId val="193551360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,13 +2153,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167623680"/>
+        <c:crossAx val="193549440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2253,7 +2282,7 @@
             <c:numRef>
               <c:f>資料總表!$K$27:$K$36</c:f>
               <c:numCache>
-                <c:formatCode>0.0000%</c:formatCode>
+                <c:formatCode>#,##0.000000_);[Red]\(#,##0.000000\)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.5966984650914064E-2</c:v>
@@ -2389,11 +2418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="167673216"/>
-        <c:axId val="167683584"/>
+        <c:axId val="193568768"/>
+        <c:axId val="193570688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="167673216"/>
+        <c:axId val="193568768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,12 +2459,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167683584"/>
+        <c:crossAx val="193570688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167683584"/>
+        <c:axId val="193570688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,11 +2497,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.000000_);[Red]\(#,##0.000000\)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167673216"/>
+        <c:crossAx val="193568768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2629,11 +2658,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235348352"/>
-        <c:axId val="235350272"/>
+        <c:axId val="193612416"/>
+        <c:axId val="193618688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235348352"/>
+        <c:axId val="193612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,12 +2691,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235350272"/>
+        <c:crossAx val="193618688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235350272"/>
+        <c:axId val="193618688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2704,7 +2733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235348352"/>
+        <c:crossAx val="193612416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2741,7 +2770,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BC67974-9CD6-461F-8739-672C14A9FFCB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC67974-9CD6-461F-8739-672C14A9FFCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,14 +3125,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -3126,14 +3155,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -3156,14 +3185,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
@@ -3479,8 +3508,8 @@
   </sheetPr>
   <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K36"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="22" customHeight="1"/>
@@ -3501,60 +3530,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="20" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="94" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="95"/>
-      <c r="I1" s="92" t="s">
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="I1" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="96" t="s">
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="96" t="s">
+      <c r="N1" s="90"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="96" t="s">
+      <c r="Q1" s="90"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="97"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="96" t="s">
+      <c r="T1" s="90"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="97"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="96" t="s">
+      <c r="W1" s="90"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="96" t="s">
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="98"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="91"/>
     </row>
     <row r="2" spans="1:30" ht="20" customHeight="1">
-      <c r="A2" s="93"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
@@ -3573,7 +3602,7 @@
       <c r="G2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="93"/>
+      <c r="I2" s="96"/>
       <c r="J2" s="52" t="s">
         <v>21</v>
       </c>
@@ -4777,7 +4806,7 @@
         <v>52</v>
       </c>
       <c r="K26" s="67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L26" s="68"/>
       <c r="M26" s="68"/>
@@ -4792,14 +4821,14 @@
       <c r="J27" s="69">
         <v>18780</v>
       </c>
-      <c r="K27" s="89">
+      <c r="K27" s="98">
         <v>2.5966984650914064E-2</v>
       </c>
       <c r="L27" s="65">
         <f>SUM(J27*J27)</f>
         <v>352688400</v>
       </c>
-      <c r="M27" s="72">
+      <c r="M27" s="99">
         <f>SUM(K27*K27)</f>
         <v>6.7428429186080661E-4</v>
       </c>
@@ -4821,14 +4850,14 @@
       <c r="J28" s="65">
         <v>19047</v>
       </c>
-      <c r="K28" s="89">
+      <c r="K28" s="98">
         <v>3.1548268851993314E-2</v>
       </c>
       <c r="L28" s="65">
         <f t="shared" ref="L28:L36" si="9">SUM(J28*J28)</f>
         <v>362788209</v>
       </c>
-      <c r="M28" s="72">
+      <c r="M28" s="99">
         <f t="shared" ref="M28:M36" si="10">SUM(K28*K28)</f>
         <v>9.9529326755765156E-4</v>
       </c>
@@ -4850,14 +4879,14 @@
       <c r="J29" s="65">
         <v>19273</v>
       </c>
-      <c r="K29" s="89">
+      <c r="K29" s="98">
         <v>2.6064945541256906E-2</v>
       </c>
       <c r="L29" s="65">
         <f t="shared" si="9"/>
         <v>371448529</v>
       </c>
-      <c r="M29" s="72">
+      <c r="M29" s="99">
         <f t="shared" si="10"/>
         <v>6.7938138606868826E-4</v>
       </c>
@@ -4879,14 +4908,14 @@
       <c r="J30" s="65">
         <v>20008</v>
       </c>
-      <c r="K30" s="89">
+      <c r="K30" s="98">
         <v>2.699900408267265E-2</v>
       </c>
       <c r="L30" s="65">
         <f t="shared" si="9"/>
         <v>400320064</v>
       </c>
-      <c r="M30" s="72">
+      <c r="M30" s="99">
         <f t="shared" si="10"/>
         <v>7.2894622145617443E-4</v>
       </c>
@@ -4908,14 +4937,14 @@
       <c r="J31" s="65">
         <v>21009</v>
       </c>
-      <c r="K31" s="89">
+      <c r="K31" s="98">
         <v>2.7869045304455942E-2</v>
       </c>
       <c r="L31" s="65">
         <f t="shared" si="9"/>
         <v>441378081</v>
       </c>
-      <c r="M31" s="72">
+      <c r="M31" s="99">
         <f t="shared" si="10"/>
         <v>7.7668368618181776E-4</v>
       </c>
@@ -4937,14 +4966,14 @@
       <c r="J32" s="65">
         <v>22000</v>
       </c>
-      <c r="K32" s="89">
+      <c r="K32" s="98">
         <v>2.6981291553967494E-2</v>
       </c>
       <c r="L32" s="65">
         <f t="shared" si="9"/>
         <v>484000000</v>
       </c>
-      <c r="M32" s="72">
+      <c r="M32" s="99">
         <f t="shared" si="10"/>
         <v>7.2799009392019766E-4</v>
       </c>
@@ -4966,14 +4995,14 @@
       <c r="J33" s="65">
         <v>23100</v>
       </c>
-      <c r="K33" s="89">
+      <c r="K33" s="98">
         <v>2.69028082933974E-2</v>
       </c>
       <c r="L33" s="65">
         <f t="shared" si="9"/>
         <v>533610000</v>
       </c>
-      <c r="M33" s="72">
+      <c r="M33" s="99">
         <f t="shared" si="10"/>
         <v>7.2376109407129195E-4</v>
       </c>
@@ -4995,14 +5024,14 @@
       <c r="J34" s="65">
         <v>23800</v>
       </c>
-      <c r="K34" s="89">
+      <c r="K34" s="98">
         <v>2.7131360944622866E-2</v>
       </c>
       <c r="L34" s="65">
         <f t="shared" si="9"/>
         <v>566440000</v>
       </c>
-      <c r="M34" s="72">
+      <c r="M34" s="99">
         <f t="shared" si="10"/>
         <v>7.3611074670740695E-4</v>
       </c>
@@ -5024,14 +5053,14 @@
       <c r="J35" s="65">
         <v>24000</v>
       </c>
-      <c r="K35" s="89">
+      <c r="K35" s="98">
         <v>2.9961152068525877E-2</v>
       </c>
       <c r="L35" s="65">
         <f t="shared" si="9"/>
         <v>576000000</v>
       </c>
-      <c r="M35" s="72">
+      <c r="M35" s="99">
         <f t="shared" si="10"/>
         <v>8.9767063327333247E-4</v>
       </c>
@@ -5053,14 +5082,14 @@
       <c r="J36" s="65">
         <v>25250</v>
       </c>
-      <c r="K36" s="89">
+      <c r="K36" s="98">
         <v>2.7311130633620534E-2</v>
       </c>
       <c r="L36" s="65">
         <f t="shared" si="9"/>
         <v>637562500</v>
       </c>
-      <c r="M36" s="72">
+      <c r="M36" s="99">
         <f t="shared" si="10"/>
         <v>7.4589785648668597E-4</v>
       </c>
@@ -5083,7 +5112,7 @@
         <f>SUM(J27:J36)</f>
         <v>216267</v>
       </c>
-      <c r="K37" s="72">
+      <c r="K37" s="98">
         <f t="shared" ref="K37:N37" si="12">SUM(K27:K36)</f>
         <v>0.27673599192542708</v>
       </c>
@@ -5091,7 +5120,7 @@
         <f t="shared" si="12"/>
         <v>4726235783</v>
       </c>
-      <c r="M37" s="72">
+      <c r="M37" s="99">
         <f t="shared" si="12"/>
         <v>7.6860192775840544E-3</v>
       </c>
@@ -5247,17 +5276,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5271,40 +5300,41 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="3" width="15.6328125" customWidth="1"/>
+    <col min="1" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84" t="s">
+      <c r="A1" s="81"/>
+      <c r="B1" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="81" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="82">
+      <c r="B2" s="79">
         <v>1</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:3" ht="17.5" thickBot="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="83">
+      <c r="B3" s="80">
         <v>3.1528719519901341E-2</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="80">
         <v>1</v>
       </c>
     </row>
@@ -5316,422 +5346,606 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="9" width="10.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="106">
+        <v>10</v>
+      </c>
+      <c r="C5" s="104">
+        <v>216267</v>
+      </c>
+      <c r="D5" s="104">
+        <v>21626.7</v>
+      </c>
+      <c r="E5" s="104">
+        <v>5454917.1222222643</v>
+      </c>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A6" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="107">
+        <v>10</v>
+      </c>
+      <c r="C6" s="109">
+        <v>0.27673599192542708</v>
+      </c>
+      <c r="D6" s="109">
+        <v>2.7673599192542708E-2</v>
+      </c>
+      <c r="E6" s="109">
+        <v>3.0820394321167938E-6</v>
+      </c>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="104">
+        <v>2338564779.5675526</v>
+      </c>
+      <c r="C11" s="106">
+        <v>1</v>
+      </c>
+      <c r="D11" s="104">
+        <v>2338564779.5675526</v>
+      </c>
+      <c r="E11" s="100">
+        <v>857.41532902100187</v>
+      </c>
+      <c r="F11" s="108">
+        <v>1.2298634737835123E-16</v>
+      </c>
+      <c r="G11" s="100">
+        <v>4.4138734191705664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="104">
+        <v>49094254.100027733</v>
+      </c>
+      <c r="C12" s="106">
+        <v>18</v>
+      </c>
+      <c r="D12" s="104">
+        <v>2727458.5611126516</v>
+      </c>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A13" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="105">
+        <v>2387659033.6675801</v>
+      </c>
+      <c r="C13" s="107">
+        <v>19</v>
+      </c>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="7" width="10.6328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="97"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.5" thickBot="1"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="72"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="100"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.5" thickBot="1"/>
-    <row r="3" spans="1:9">
-      <c r="A3" s="73" t="s">
+      <c r="B4" s="86">
+        <v>3.1528719519904942E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="73"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="74" t="s">
+      <c r="B5" s="86">
+        <v>9.9406015456483484E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="90">
-        <v>3.1528719519904942E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="74" t="s">
+      <c r="B6" s="86">
+        <v>-0.12388168232611456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="90">
-        <v>9.9406015456483484E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="74" t="s">
+      <c r="B7" s="86">
+        <v>1.8611414943423418E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A8" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="90">
-        <v>-0.12388168232611456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="74" t="s">
+      <c r="B12" s="76">
+        <v>1</v>
+      </c>
+      <c r="C12" s="86">
+        <v>2.7573593348384425E-8</v>
+      </c>
+      <c r="D12" s="86">
+        <v>2.7573593348384425E-8</v>
+      </c>
+      <c r="E12" s="86">
+        <v>7.9603943473540075E-3</v>
+      </c>
+      <c r="F12" s="86">
+        <v>0.9310994445768912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="90">
-        <v>1.8611414943423418E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A8" s="75" t="s">
+      <c r="B13" s="76">
+        <v>8</v>
+      </c>
+      <c r="C13" s="86">
+        <v>2.771078129570276E-5</v>
+      </c>
+      <c r="D13" s="86">
+        <v>3.463847661962845E-6</v>
+      </c>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+    </row>
+    <row r="14" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A14" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="77">
+        <v>9</v>
+      </c>
+      <c r="C14" s="87">
+        <v>2.7738354889051144E-5</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.5" thickBot="1"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="75"/>
+      <c r="B16" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="75">
+      <c r="E16" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="86">
+        <v>2.7161066460601034E-2</v>
+      </c>
+      <c r="C17" s="86">
+        <v>5.7745979296939705E-3</v>
+      </c>
+      <c r="D17" s="86">
+        <v>4.703542444216624</v>
+      </c>
+      <c r="E17" s="86">
+        <v>1.5344202272016148E-3</v>
+      </c>
+      <c r="F17" s="86">
+        <v>1.3844819755585316E-2</v>
+      </c>
+      <c r="G17" s="86">
+        <v>4.047731316561675E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.5" thickBot="1">
+      <c r="A18" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="87">
+        <v>2.3699072532641365E-8</v>
+      </c>
+      <c r="C18" s="87">
+        <v>2.6562201005337409E-7</v>
+      </c>
+      <c r="D18" s="87">
+        <v>8.9221042066051956E-2</v>
+      </c>
+      <c r="E18" s="87">
+        <v>0.93109944457689897</v>
+      </c>
+      <c r="F18" s="87">
+        <v>-5.8882638105168221E-7</v>
+      </c>
+      <c r="G18" s="87">
+        <v>6.3622452611696484E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.5" thickBot="1"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="73">
+        <v>1</v>
+      </c>
+      <c r="B25" s="73">
+        <v>2.7606135042764039E-2</v>
+      </c>
+      <c r="C25" s="73">
+        <v>-1.639150391849975E-3</v>
+      </c>
+      <c r="E25" s="73">
+        <v>5</v>
+      </c>
+      <c r="F25" s="73">
+        <v>2.5966984650914064E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="73">
+        <v>2</v>
+      </c>
+      <c r="B26" s="73">
+        <v>2.7612462695130253E-2</v>
+      </c>
+      <c r="C26" s="73">
+        <v>3.9358061568630608E-3</v>
+      </c>
+      <c r="E26" s="73">
+        <v>15</v>
+      </c>
+      <c r="F26" s="73">
+        <v>2.6064945541256906E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="73">
+        <v>3</v>
+      </c>
+      <c r="B27" s="73">
+        <v>2.7617818685522631E-2</v>
+      </c>
+      <c r="C27" s="73">
+        <v>-1.5528731442657241E-3</v>
+      </c>
+      <c r="E27" s="73">
+        <v>25</v>
+      </c>
+      <c r="F27" s="73">
+        <v>2.69028082933974E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="73">
+        <v>4</v>
+      </c>
+      <c r="B28" s="73">
+        <v>2.7635237503834124E-2</v>
+      </c>
+      <c r="C28" s="73">
+        <v>-6.3623342116147369E-4</v>
+      </c>
+      <c r="E28" s="73">
+        <v>35</v>
+      </c>
+      <c r="F28" s="73">
+        <v>2.6981291553967494E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="73">
+        <v>5</v>
+      </c>
+      <c r="B29" s="73">
+        <v>2.7658960275439296E-2</v>
+      </c>
+      <c r="C29" s="73">
+        <v>2.1008502901664547E-4</v>
+      </c>
+      <c r="E29" s="73">
+        <v>45</v>
+      </c>
+      <c r="F29" s="73">
+        <v>2.699900408267265E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="73">
+        <v>6</v>
+      </c>
+      <c r="B30" s="73">
+        <v>2.7682446056319143E-2</v>
+      </c>
+      <c r="C30" s="73">
+        <v>-7.0115450235164883E-4</v>
+      </c>
+      <c r="E30" s="73">
+        <v>55</v>
+      </c>
+      <c r="F30" s="73">
+        <v>2.7131360944622866E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="73">
+        <v>7</v>
+      </c>
+      <c r="B31" s="73">
+        <v>2.7708515036105049E-2</v>
+      </c>
+      <c r="C31" s="73">
+        <v>-8.0570674270764864E-4</v>
+      </c>
+      <c r="E31" s="73">
+        <v>65</v>
+      </c>
+      <c r="F31" s="73">
+        <v>2.7311130633620534E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="73">
+        <v>8</v>
+      </c>
+      <c r="B32" s="73">
+        <v>2.7725104386877898E-2</v>
+      </c>
+      <c r="C32" s="73">
+        <v>-5.9374344225503195E-4</v>
+      </c>
+      <c r="E32" s="73">
+        <v>75</v>
+      </c>
+      <c r="F32" s="73">
+        <v>2.7869045304455942E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="73">
+        <v>9</v>
+      </c>
+      <c r="B33" s="73">
+        <v>2.7729844201384427E-2</v>
+      </c>
+      <c r="C33" s="73">
+        <v>2.2313078671414507E-3</v>
+      </c>
+      <c r="E33" s="73">
+        <v>85</v>
+      </c>
+      <c r="F33" s="73">
+        <v>2.9961152068525877E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.5" thickBot="1">
+      <c r="A34" s="74">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="78">
-        <v>1</v>
-      </c>
-      <c r="C12" s="90">
-        <v>2.7573593348384425E-8</v>
-      </c>
-      <c r="D12" s="90">
-        <v>2.7573593348384425E-8</v>
-      </c>
-      <c r="E12" s="90">
-        <v>7.9603943473540075E-3</v>
-      </c>
-      <c r="F12" s="90">
-        <v>0.9310994445768912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="78">
-        <v>8</v>
-      </c>
-      <c r="C13" s="90">
-        <v>2.771078129570276E-5</v>
-      </c>
-      <c r="D13" s="90">
-        <v>3.463847661962845E-6</v>
-      </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A14" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="79">
-        <v>9</v>
-      </c>
-      <c r="C14" s="91">
-        <v>2.7738354889051144E-5</v>
-      </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-    </row>
-    <row r="15" spans="1:9" ht="17.5" thickBot="1"/>
-    <row r="16" spans="1:9">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="90">
-        <v>2.7161066460601034E-2</v>
-      </c>
-      <c r="C17" s="90">
-        <v>5.7745979296939705E-3</v>
-      </c>
-      <c r="D17" s="90">
-        <v>4.703542444216624</v>
-      </c>
-      <c r="E17" s="90">
-        <v>1.5344202272016148E-3</v>
-      </c>
-      <c r="F17" s="90">
-        <v>1.3844819755585316E-2</v>
-      </c>
-      <c r="G17" s="90">
-        <v>4.047731316561675E-2</v>
-      </c>
-      <c r="H17" s="90">
-        <v>1.3844819755585316E-2</v>
-      </c>
-      <c r="I17" s="90">
-        <v>4.047731316561675E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="17.5" thickBot="1">
-      <c r="A18" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="91">
-        <v>2.3699072532641365E-8</v>
-      </c>
-      <c r="C18" s="91">
-        <v>2.6562201005337409E-7</v>
-      </c>
-      <c r="D18" s="91">
-        <v>8.9221042066051956E-2</v>
-      </c>
-      <c r="E18" s="91">
-        <v>0.93109944457689897</v>
-      </c>
-      <c r="F18" s="91">
-        <v>-5.8882638105168221E-7</v>
-      </c>
-      <c r="G18" s="91">
-        <v>6.3622452611696484E-7</v>
-      </c>
-      <c r="H18" s="91">
-        <v>-5.8882638105168221E-7</v>
-      </c>
-      <c r="I18" s="91">
-        <v>6.3622452611696484E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.5" thickBot="1"/>
-    <row r="24" spans="1:9">
-      <c r="A24" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="74">
-        <v>1</v>
-      </c>
-      <c r="B25" s="74">
-        <v>2.7606135042764039E-2</v>
-      </c>
-      <c r="C25" s="74">
-        <v>-1.639150391849975E-3</v>
-      </c>
-      <c r="E25" s="74">
-        <v>5</v>
-      </c>
-      <c r="F25" s="74">
-        <v>2.5966984650914064E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="74">
-        <v>2</v>
-      </c>
-      <c r="B26" s="74">
-        <v>2.7612462695130253E-2</v>
-      </c>
-      <c r="C26" s="74">
-        <v>3.9358061568630608E-3</v>
-      </c>
-      <c r="E26" s="74">
-        <v>15</v>
-      </c>
-      <c r="F26" s="74">
-        <v>2.6064945541256906E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="74">
-        <v>3</v>
-      </c>
-      <c r="B27" s="74">
-        <v>2.7617818685522631E-2</v>
-      </c>
-      <c r="C27" s="74">
-        <v>-1.5528731442657241E-3</v>
-      </c>
-      <c r="E27" s="74">
-        <v>25</v>
-      </c>
-      <c r="F27" s="74">
-        <v>2.69028082933974E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="74">
-        <v>4</v>
-      </c>
-      <c r="B28" s="74">
-        <v>2.7635237503834124E-2</v>
-      </c>
-      <c r="C28" s="74">
-        <v>-6.3623342116147369E-4</v>
-      </c>
-      <c r="E28" s="74">
-        <v>35</v>
-      </c>
-      <c r="F28" s="74">
-        <v>2.6981291553967494E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="74">
-        <v>5</v>
-      </c>
-      <c r="B29" s="74">
-        <v>2.7658960275439296E-2</v>
-      </c>
-      <c r="C29" s="74">
-        <v>2.1008502901664547E-4</v>
-      </c>
-      <c r="E29" s="74">
-        <v>45</v>
-      </c>
-      <c r="F29" s="74">
-        <v>2.699900408267265E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="74">
-        <v>6</v>
-      </c>
-      <c r="B30" s="74">
-        <v>2.7682446056319143E-2</v>
-      </c>
-      <c r="C30" s="74">
-        <v>-7.0115450235164883E-4</v>
-      </c>
-      <c r="E30" s="74">
-        <v>55</v>
-      </c>
-      <c r="F30" s="74">
-        <v>2.7131360944622866E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="74">
-        <v>7</v>
-      </c>
-      <c r="B31" s="74">
-        <v>2.7708515036105049E-2</v>
-      </c>
-      <c r="C31" s="74">
-        <v>-8.0570674270764864E-4</v>
-      </c>
-      <c r="E31" s="74">
-        <v>65</v>
-      </c>
-      <c r="F31" s="74">
-        <v>2.7311130633620534E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="74">
-        <v>8</v>
-      </c>
-      <c r="B32" s="74">
-        <v>2.7725104386877898E-2</v>
-      </c>
-      <c r="C32" s="74">
-        <v>-5.9374344225503195E-4</v>
-      </c>
-      <c r="E32" s="74">
-        <v>75</v>
-      </c>
-      <c r="F32" s="74">
-        <v>2.7869045304455942E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="74">
-        <v>9</v>
-      </c>
-      <c r="B33" s="74">
-        <v>2.7729844201384427E-2</v>
-      </c>
-      <c r="C33" s="74">
-        <v>2.2313078671414507E-3</v>
-      </c>
-      <c r="E33" s="74">
-        <v>85</v>
-      </c>
-      <c r="F33" s="74">
-        <v>2.9961152068525877E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17.5" thickBot="1">
-      <c r="A34" s="75">
-        <v>10</v>
-      </c>
-      <c r="B34" s="75">
+      <c r="B34" s="74">
         <v>2.7759468042050227E-2</v>
       </c>
-      <c r="C34" s="75">
+      <c r="C34" s="74">
         <v>-4.4833740842969289E-4</v>
       </c>
-      <c r="E34" s="75">
+      <c r="E34" s="74">
         <v>95</v>
       </c>
-      <c r="F34" s="75">
+      <c r="F34" s="74">
         <v>3.1548268851993314E-2</v>
       </c>
     </row>
@@ -5749,311 +5963,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="7" width="10.6328125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="78">
-        <v>10</v>
-      </c>
-      <c r="C5" s="80">
-        <v>216267</v>
-      </c>
-      <c r="D5" s="80">
-        <v>21626.7</v>
-      </c>
-      <c r="E5" s="80">
-        <v>5454917.1222222643</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A6" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="79">
-        <v>10</v>
-      </c>
-      <c r="C6" s="77">
-        <v>0.27673599192542708</v>
-      </c>
-      <c r="D6" s="77">
-        <v>2.7673599192542708E-2</v>
-      </c>
-      <c r="E6" s="77">
-        <v>3.0820394321167938E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="80">
-        <v>2338564779.5675526</v>
-      </c>
-      <c r="C11" s="80">
-        <v>1</v>
-      </c>
-      <c r="D11" s="80">
-        <v>2338564779.5675526</v>
-      </c>
-      <c r="E11" s="80">
-        <v>857.41532902100187</v>
-      </c>
-      <c r="F11" s="80">
-        <v>1.2298634737835123E-16</v>
-      </c>
-      <c r="G11" s="80">
-        <v>4.4138734191705664</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="80">
-        <v>49094254.100027733</v>
-      </c>
-      <c r="C12" s="80">
-        <v>18</v>
-      </c>
-      <c r="D12" s="80">
-        <v>2727458.5611126516</v>
-      </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-    </row>
-    <row r="13" spans="1:7" ht="17.5" thickBot="1">
-      <c r="A13" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="81">
-        <v>2387659033.6675801</v>
-      </c>
-      <c r="C13" s="81">
-        <v>19</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="3" width="10.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
+      <c r="A1" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
     </row>
     <row r="2" spans="1:3" ht="17.5" thickBot="1"/>
     <row r="3" spans="1:3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="78">
+        <v>21626.7</v>
+      </c>
+      <c r="C4" s="82">
+        <v>2.7673599192542708E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="78">
+        <v>5454917.1222222643</v>
+      </c>
+      <c r="C5" s="82">
+        <v>3.0820394321167938E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="78">
+        <v>10</v>
+      </c>
+      <c r="C6" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="83">
+        <v>3.1528719519901341E-2</v>
+      </c>
+      <c r="C7" s="83"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="85">
+        <v>0</v>
+      </c>
+      <c r="C8" s="83"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="85">
+        <v>9</v>
+      </c>
+      <c r="C9" s="83"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="83">
+        <v>29.281655855857917</v>
+      </c>
+      <c r="C10" s="83"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="88">
+        <v>1.5414413100768638E-10</v>
+      </c>
+      <c r="C11" s="83"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="80">
-        <v>21626.7</v>
-      </c>
-      <c r="C4" s="85">
-        <v>2.7673599192542708E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="80">
-        <v>5454917.1222222643</v>
-      </c>
-      <c r="C5" s="85">
-        <v>3.0820394321167938E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="80">
-        <v>10</v>
-      </c>
-      <c r="C6" s="74">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="74" t="s">
+      <c r="B12" s="83">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="C12" s="83"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="86">
-        <v>3.1528719519901341E-2</v>
-      </c>
-      <c r="C7" s="86"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="74" t="s">
+      <c r="B13" s="88">
+        <v>3.0828826201537276E-10</v>
+      </c>
+      <c r="C13" s="83"/>
+    </row>
+    <row r="14" spans="1:3" ht="17.5" thickBot="1">
+      <c r="A14" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="88">
-        <v>0</v>
-      </c>
-      <c r="C8" s="86"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="88">
-        <v>9</v>
-      </c>
-      <c r="C9" s="86"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="86">
-        <v>29.281655855857917</v>
-      </c>
-      <c r="C10" s="86"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="101">
-        <v>1.5414413100768638E-10</v>
-      </c>
-      <c r="C11" s="86"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="86">
-        <v>1.8331129326562374</v>
-      </c>
-      <c r="C12" s="86"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="101">
-        <v>3.0828826201537276E-10</v>
-      </c>
-      <c r="C13" s="86"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.5" thickBot="1">
-      <c r="A14" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="87">
+      <c r="B14" s="84">
         <v>2.2621571627982053</v>
       </c>
-      <c r="C14" s="87"/>
+      <c r="C14" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6063,146 +6108,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.5" thickBot="1"/>
-    <row r="3" spans="1:3">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="82">
-        <v>21626.7</v>
-      </c>
-      <c r="C4" s="82">
-        <v>2.7673599192542708E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="82">
-        <v>5454917.1222222643</v>
-      </c>
-      <c r="C5" s="82">
-        <v>3.0820394321167938E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="82">
-        <v>10</v>
-      </c>
-      <c r="C6" s="82">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="82">
-        <v>3.1528719519901341E-2</v>
-      </c>
-      <c r="C7" s="82"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="82">
-        <v>2</v>
-      </c>
-      <c r="C8" s="82"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="82">
-        <v>9</v>
-      </c>
-      <c r="C9" s="82"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="82">
-        <v>29.278947935248226</v>
-      </c>
-      <c r="C10" s="82"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="82">
-        <v>1.5427127249372889E-10</v>
-      </c>
-      <c r="C11" s="82"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="82">
-        <v>1.8331129326562374</v>
-      </c>
-      <c r="C12" s="82"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="82">
-        <v>3.0854254498745779E-10</v>
-      </c>
-      <c r="C13" s="82"/>
-    </row>
-    <row r="14" spans="1:3" ht="17.5" thickBot="1">
-      <c r="A14" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="83">
-        <v>2.2621571627982053</v>
-      </c>
-      <c r="C14" s="83"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>